--- a/data/trans_camb/P23_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_4_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 4,85</t>
+          <t>-7,15; 12,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 0,0</t>
+          <t>-17,79; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 1,38</t>
+          <t>-17,79; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 2,79</t>
+          <t>-8,55; 4,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 1,88</t>
+          <t>-8,34; 5,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,46</t>
+          <t>-8,97; 3,76</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 6,93</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,15; 1,36</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 1,02</t>
         </is>
       </c>
     </row>
@@ -677,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-35,14%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-66,52%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-42,57%</t>
+          <t>-14,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-52,68%</t>
+          <t>-6,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-71,0%</t>
+          <t>-31,14%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-58,8%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-68,99%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -762,27 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,17</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-3,75</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,8</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -800,27 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,82</t>
+          <t>0,0; 7,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,61; -2,54</t>
+          <t>0,0; 15,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 1,15</t>
+          <t>-15,24; -1,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -1,22</t>
+          <t>-10,75; 4,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 1,89</t>
+          <t>-11,86; 2,08</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; -0,72</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 3,2</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 5,25</t>
         </is>
       </c>
     </row>
@@ -843,22 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-63,63%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>-42,36%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-66,3%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-39,1%</t>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-17,45%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-10,38%</t>
         </is>
       </c>
     </row>
@@ -886,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 134,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-99,23; 180,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,06</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 14,45</t>
+          <t>-12,34; 7,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 26,08</t>
+          <t>-10,87; 9,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 0,32</t>
+          <t>-10,54; 8,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 5,0</t>
+          <t>-9,13; -0,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 5,22</t>
+          <t>-6,28; 5,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 13,83</t>
+          <t>-7,19; 4,13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 1,47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 4,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 4,58</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>-26,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>69,55%</t>
+          <t>-12,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-71,58%</t>
+          <t>-12,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,1%</t>
+          <t>-79,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,82%</t>
+          <t>-8,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>-28,28%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-50,46%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-9,53%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-16,88%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,84; 349,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,01; 621,26</t>
+          <t>-80,8; 362,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 51,42</t>
+          <t>-84,73; 324,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,76; 231,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-77,01; 142,44</t>
+          <t>-86,37; 355,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,24; 308,18</t>
+          <t>-100,0; 296,69</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-88,21; 80,25</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-70,87; 136,42</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-69,88; 150,94</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 4,06</t>
+          <t>-0,68; 11,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 5,26</t>
+          <t>-1,02; 8,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 0,66</t>
+          <t>-1,08; 9,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 4,72</t>
+          <t>-13,58; 1,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 0,9</t>
+          <t>-12,25; 5,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,34</t>
+          <t>-7,26; 12,2</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 3,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-6,05; 4,22</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 7,4</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,13%</t>
+          <t>270,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>253,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-47,08%</t>
+          <t>285,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,43%</t>
+          <t>-43,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-40,88%</t>
+          <t>-31,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,31%</t>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-21,76%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-12,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>27,86%</t>
         </is>
       </c>
     </row>
@@ -1188,27 +1444,42 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-85,09; 460,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-76,81; 19,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,8; 79,32</t>
+          <t>-79,95; 42,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,06; 24,68</t>
+          <t>-74,86; 68,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,16; 74,85</t>
+          <t>-45,74; 150,68</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-67,7; 108,84</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-62,65; 95,73</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-39,94; 168,8</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>6,26</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12,49</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
           <t>2,61</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,95</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 2,15</t>
+          <t>-7,74; 7,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 2,03</t>
+          <t>-10,47; 2,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 8,46</t>
+          <t>-4,73; 21,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 7,82</t>
+          <t>1,8; 16,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 3,64</t>
+          <t>0,0; 12,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,23</t>
+          <t>4,58; 23,85</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 7,88</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 4,04</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 18,16</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-49,53%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-45,64%</t>
+          <t>-51,76%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>167,65%</t>
+          <t>77,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>146,55%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,86%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>79,65%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-4,94%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>242,86%</t>
         </is>
       </c>
     </row>
@@ -1339,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,07; 81,03</t>
+          <t>-85,41; 430,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,89; 75,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,12; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,12 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,99; 164,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-64,73; 128,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-54,51; 599,66</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-86,88; 432,15</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-11,88; 1409,12</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-3,64</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-2,61</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,75</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,73; 15,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -0,94</t>
+          <t>1,96; 18,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -0,12</t>
+          <t>-19,13; -2,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 4,1</t>
+          <t>-16,55; 1,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -0,36</t>
+          <t>-9,23; 14,49</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-10,0; -1,18</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-8,56; 0,98</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 12,65</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>580,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-84,22%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-77,81%</t>
-        </is>
-      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>-71,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-78,83%</t>
+          <t>45,27%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-71,73%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>130,46%</t>
         </is>
       </c>
     </row>
@@ -1515,12 +1891,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-86,63; 223,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 46,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-45,89; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,2</t>
+          <t>-2,31; 3,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,62</t>
+          <t>-3,03; 2,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -1,52</t>
+          <t>-1,03; 5,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 0,35</t>
+          <t>-6,17; -0,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,46</t>
+          <t>-4,53; 1,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,36</t>
+          <t>-2,45; 4,79</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 0,41</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 1,18</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 4,11</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>-12,63%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-61,05%</t>
+          <t>60,79%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-33,71%</t>
+          <t>-52,81%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-36,97%</t>
+          <t>-26,71%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-32,79%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-23,01%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>33,64%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 116,36</t>
+          <t>-55,3; 158,9</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 196,94</t>
+          <t>-67,15; 119,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-79,45; -31,12</t>
+          <t>-31,78; 297,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-60,73; 11,78</t>
+          <t>-79,6; -10,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-58,51; 15,52</t>
+          <t>-61,06; 34,21</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 38,18</t>
+          <t>-31,87; 116,35</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-61,35; 13,1</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-54,66; 34,29</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 112,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
